--- a/Chapter_Assignments.xlsx
+++ b/Chapter_Assignments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Chapter</t>
   </si>
@@ -33,46 +33,10 @@
     <t>Cam</t>
   </si>
   <si>
-    <t>Presentation Guidelines and Rules</t>
-  </si>
-  <si>
     <t>Stefan</t>
   </si>
   <si>
-    <t>Intro</t>
-  </si>
-  <si>
     <t>Chibuzor</t>
-  </si>
-  <si>
-    <t>Agenta = Table of Contents</t>
-  </si>
-  <si>
-    <t>Demos</t>
-  </si>
-  <si>
-    <t>Questions (after presentation)</t>
-  </si>
-  <si>
-    <t>Other Rules</t>
-  </si>
-  <si>
-    <t>Every chapter needs a cheat sheet</t>
-  </si>
-  <si>
-    <t>Provie cheat sheet one day before every presentation</t>
-  </si>
-  <si>
-    <t>Presentation Days</t>
-  </si>
-  <si>
-    <t>Chibuzor = Tuesday</t>
-  </si>
-  <si>
-    <t>Stefan = Thursday</t>
-  </si>
-  <si>
-    <t>Cam = Monday</t>
   </si>
 </sst>
 </file>
@@ -402,7 +366,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -433,9 +397,7 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -443,14 +405,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -458,14 +418,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -473,14 +431,12 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -493,9 +449,7 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -503,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -515,14 +469,12 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -535,9 +487,7 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -545,14 +495,12 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -572,14 +520,12 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -587,14 +533,12 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -607,9 +551,7 @@
       <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -617,14 +559,12 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -632,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>

--- a/Chapter_Assignments.xlsx
+++ b/Chapter_Assignments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Programming-in-HTML5-with-Javascript-and-CSS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Programming-in-HTML5-with-Javascript-and-CSS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Chapter</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Presentation Guidelines and Rules</t>
-  </si>
-  <si>
-    <t>Stefan</t>
   </si>
   <si>
     <t>Intro</t>
@@ -78,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -402,7 +399,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -443,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -458,13 +455,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -473,13 +470,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -494,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -503,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -514,14 +511,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -536,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -545,13 +540,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -571,14 +566,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -587,13 +580,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -608,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,13 +610,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -632,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
